--- a/data/data_final_continuous.xlsx
+++ b/data/data_final_continuous.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,51 +397,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hyder, 2007</t>
+          <t>Adams, 2017</t>
         </is>
       </c>
       <c r="B2">
-        <v>482</v>
+        <v>128</v>
       </c>
       <c r="C2">
-        <v>3.399999999999992</v>
+        <v>1.799999999999997</v>
       </c>
       <c r="D2">
-        <v>10.8</v>
+        <v>10.06</v>
       </c>
       <c r="E2">
-        <v>507</v>
+        <v>109</v>
       </c>
       <c r="F2">
-        <v>-1.099999999999994</v>
+        <v>-3.399999999999992</v>
       </c>
       <c r="G2">
-        <v>11.15</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nga, 2009</t>
+          <t>Osei, 2010</t>
         </is>
       </c>
       <c r="B3">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="C3">
-        <v>2.400000000000006</v>
+        <v>1.200000000000003</v>
       </c>
       <c r="D3">
-        <v>7.51</v>
+        <v>1.51</v>
       </c>
       <c r="E3">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="F3">
-        <v>-0.2000000000000028</v>
+        <v>0.7999999999999972</v>
       </c>
       <c r="G3">
-        <v>7.55</v>
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Perignon, 2016</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>143</v>
+      </c>
+      <c r="C4">
+        <v>-0.9000000000000057</v>
+      </c>
+      <c r="D4">
+        <v>28.36</v>
+      </c>
+      <c r="E4">
+        <v>134</v>
+      </c>
+      <c r="F4">
+        <v>-1.100000000000009</v>
+      </c>
+      <c r="G4">
+        <v>27.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kumar, 2014</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>16.72</v>
+      </c>
+      <c r="E5">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>-5</v>
+      </c>
+      <c r="G5">
+        <v>18.4</v>
       </c>
     </row>
   </sheetData>
